--- a/step_5/final_manifest.xlsx
+++ b/step_5/final_manifest.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avkashchauhan99/work/avkash/udacity/nd073-c3-building-computer-vision-solutions-with-azure-project-starter/starter/sample_manifest_table/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phamthitramanh/FPT_AI_Fresher/UDACITY/AI engineering using Microsoft Azure/Project_1/cd0461-building-computer-vision-solutions-with-azure-project-starter-master/starter/sample_submission/step_5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CC75DCFA-F5C1-CA4D-BA5B-B3FC973ECEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2BD6E2EE-F4B6-B441-9131-38B8B799FA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sample_manifest" sheetId="1" r:id="rId1"/>
+    <sheet name="final_manifest" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="65" uniqueCount="41">
   <si>
     <t>Flight No</t>
   </si>
@@ -46,25 +51,25 @@
     <t>Sex</t>
   </si>
   <si>
-    <t xml:space="preserve"> SeatNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DateofBirth</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DoBValidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PersonValidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LuggageValidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NameValidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BoardingPassValidation</t>
+    <t>SeatNo</t>
+  </si>
+  <si>
+    <t>DateofBirth</t>
+  </si>
+  <si>
+    <t>DoBValidation</t>
+  </si>
+  <si>
+    <t>PersonValidation</t>
+  </si>
+  <si>
+    <t>LuggageValidation</t>
+  </si>
+  <si>
+    <t>NameValidation</t>
+  </si>
+  <si>
+    <t>BoardingPassValidation</t>
   </si>
   <si>
     <t>UA-123</t>
@@ -122,13 +127,37 @@
   </si>
   <si>
     <t xml:space="preserve"> 31 January 1994</t>
+  </si>
+  <si>
+    <t>San Ho Chi Minh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seoul</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pham</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Duong</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31 August 1997</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;₫&quot;#,##0_);[Red]\(&quot;₫&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -263,14 +292,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -455,15 +476,15 @@
   </fills>
   <borders count="10">
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom style="thick">
         <color theme="4"/>
@@ -471,8 +492,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
@@ -480,8 +501,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.39997558519241921"/>
@@ -489,12 +510,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
+      </start>
+      <end style="thin">
         <color rgb="FF7F7F7F"/>
-      </right>
+      </end>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -504,12 +525,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
+      </start>
+      <end style="thin">
         <color rgb="FF3F3F3F"/>
-      </right>
+      </end>
       <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -519,8 +540,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -528,12 +549,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <start style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
+      </start>
+      <end style="double">
         <color rgb="FF3F3F3F"/>
-      </right>
+      </end>
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -543,12 +564,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
+      </start>
+      <end style="thin">
         <color rgb="FFB2B2B2"/>
-      </right>
+      </end>
       <top style="thin">
         <color rgb="FFB2B2B2"/>
       </top>
@@ -558,8 +579,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -613,9 +634,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -675,7 +699,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -828,25 +852,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:lumMod val="110%"/>
+                <a:satMod val="105%"/>
+                <a:tint val="67%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="103%"/>
+                <a:tint val="73%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="109%"/>
+                <a:tint val="81%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -854,25 +878,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:satMod val="103%"/>
+                <a:lumMod val="102%"/>
+                <a:tint val="94%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:satMod val="110%"/>
+                <a:lumMod val="100%"/>
+                <a:shade val="100%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:lumMod val="99%"/>
+                <a:satMod val="120%"/>
+                <a:shade val="78%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -885,21 +909,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -913,7 +937,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="63%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -925,32 +949,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
+            <a:tint val="95%"/>
+            <a:satMod val="170%"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="93%"/>
+                <a:satMod val="150%"/>
+                <a:shade val="98%"/>
+                <a:lumMod val="102%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="98%"/>
+                <a:satMod val="130%"/>
+                <a:shade val="90%"/>
+                <a:lumMod val="103%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="63%"/>
+                <a:satMod val="120%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -970,27 +994,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" customWidth="1"/>
-    <col min="12" max="12" width="22.1640625" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" customWidth="1"/>
-    <col min="14" max="14" width="17.5" customWidth="1"/>
-    <col min="15" max="15" width="26.5" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1069,19 +1090,19 @@
         <v>24</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1116,19 +1137,19 @@
         <v>28</v>
       </c>
       <c r="K3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
       </c>
       <c r="M3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1163,20 +1184,117 @@
         <v>33</v>
       </c>
       <c r="K4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
       </c>
       <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="O4" t="b">
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
         <v>0</v>
       </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
